--- a/基本設計・詳細設計/基本設計書.xlsx
+++ b/基本設計・詳細設計/基本設計書.xlsx
@@ -11,12 +11,17 @@
     <sheet name="IO関連図(アカウント更新)" sheetId="4" r:id="rId7"/>
     <sheet name="IO関連図(アカウント削除)" sheetId="5" r:id="rId8"/>
     <sheet name="IO関連図(アカウント検索)" sheetId="6" r:id="rId9"/>
+    <sheet name="画面レイアウト(ログイン)" sheetId="7" r:id="rId10"/>
+    <sheet name="画面レイアウト(TOPページ)" sheetId="8" r:id="rId11"/>
+    <sheet name="画面レイアウト(アカウント登録)" sheetId="9" r:id="rId12"/>
+    <sheet name="画面レイアウト(アカウント登録確認画面)" sheetId="10" r:id="rId13"/>
+    <sheet name="画面レイアウト(アカウント登録完了画面)" sheetId="11" r:id="rId14"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>この書類はNumbersから書き出されました。各表は  Excelワークシート に変換されました。各Numbersシート上のその他すべてのオブジェクトはそれぞれ別個のワークシートに配置されました。Excelでは数式の計算結果が異なる可能性があるので注意してください。</t>
   </si>
@@ -83,6 +88,45 @@
   <si>
     <t>IO関連図(アカウント検索)</t>
   </si>
+  <si>
+    <t>画面レイアウト(ログイン)</t>
+  </si>
+  <si>
+    <t>画面レイアウト</t>
+  </si>
+  <si>
+    <t>画面名</t>
+  </si>
+  <si>
+    <t>ユーザー管理システム</t>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+  </si>
+  <si>
+    <t>画面レイアウト(TOPページ)</t>
+  </si>
+  <si>
+    <t>ログイン画面(アカウント権限：管理者)</t>
+  </si>
+  <si>
+    <t>画面レイアウト(アカウント登録)</t>
+  </si>
+  <si>
+    <t>アカウント登録画面</t>
+  </si>
+  <si>
+    <t>画面レイアウト(アカウント登録確認画面)</t>
+  </si>
+  <si>
+    <t>アカウント登録確認画面</t>
+  </si>
+  <si>
+    <t>画面レイアウト(アカウント登録完了画面)</t>
+  </si>
+  <si>
+    <t>アカウント登録完了画面</t>
+  </si>
 </sst>
 </file>
 
@@ -92,7 +136,7 @@
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -141,6 +185,43 @@
       <color indexed="8"/>
       <name val="ヒラギノ角ゴ ProN W3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="ヒラギノ角ゴ ProN W6"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="13"/>
+      <name val="ヒラギノ角ゴ ProN W3"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="12"/>
+      <color indexed="13"/>
+      <name val="ヒラギノ角ゴ ProN W3"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color indexed="8"/>
+      <name val="ヒラギノ角ゴ ProN W6"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="ヒラギノ角ゴ ProN W6"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="ヒラギノ角ゴ ProN W3"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color indexed="8"/>
+      <name val="ヒラギノ角ゴ ProN W6"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -162,7 +243,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -260,13 +341,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -345,6 +456,36 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,6 +507,7 @@
       <rgbColor rgb="ffeef3f4"/>
       <rgbColor rgb="ff0000ff"/>
       <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="fffefffe"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -915,8 +1057,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7454899" y="2319403"/>
-          <a:ext cx="2582523" cy="1104870"/>
+          <a:off x="7454900" y="2319403"/>
+          <a:ext cx="2582522" cy="1104870"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1182,6 +1324,57 @@
               <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
             </a:rPr>
             <a:t>都道府県マスタ</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>アカウント基本情報テーブル</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2386,7 +2579,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:colOff>12699</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>95497</xdr:rowOff>
     </xdr:to>
@@ -2672,13 +2865,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="アカウント一覧"/>
+        <xdr:cNvPr id="31" name="アカウント一覧表"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3721099" y="3884785"/>
-          <a:ext cx="2582523" cy="1104869"/>
+          <a:off x="3721100" y="3884785"/>
+          <a:ext cx="2582522" cy="1104869"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2743,7 +2936,7 @@
               <a:cs typeface="+mn-cs"/>
               <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
             </a:rPr>
-            <a:t>アカウント一覧</a:t>
+            <a:t>アカウント一覧表</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2753,13 +2946,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1244600</xdr:colOff>
+      <xdr:colOff>1244599</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>29790</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1244600</xdr:colOff>
+      <xdr:colOff>1244599</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>134776</xdr:rowOff>
     </xdr:to>
@@ -2792,6 +2985,7124 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6531</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19044</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>69968</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="四角形"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6531" y="1070604"/>
+          <a:ext cx="9943920" cy="11106910"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>258319</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>210512</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>580884</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>105706</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="メールアドレス"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="258319" y="1496387"/>
+          <a:ext cx="1567166" cy="579090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>メールアドレス</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>756376</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>20314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>67939</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="四角形"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2000976" y="1534154"/>
+          <a:ext cx="2971075" cy="503556"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>258319</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>209854</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>580884</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>105047</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="パスワード"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="258319" y="2179624"/>
+          <a:ext cx="1567166" cy="579089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>パスワード</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>756376</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>67280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="四角形"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2000976" y="2217390"/>
+          <a:ext cx="2971075" cy="503556"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>737326</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>112245</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>16201</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>7439</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="ログイン"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1981926" y="2993875"/>
+          <a:ext cx="1768076" cy="579090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>ログイン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>237586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>25218</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>26686</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="()"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="-12519" y="237586"/>
+          <a:ext cx="9982020" cy="12772946"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>()</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>490040</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>157172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>754560</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>46015</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="トップ プロフィール D .I.Blogについて 問い合わせ その他 アカウント登録 アカウント一覧 ログアウト"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="490040" y="1208732"/>
+          <a:ext cx="8976721" cy="579089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>トップ　プロフィール　D .I.Blogについて　問い合わせ　その他　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>アカウント登録</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>アカウント一覧</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>ログアウト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>234587</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>754560</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>213033</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="人気の記事…"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6457587" y="1352226"/>
+          <a:ext cx="3009174" cy="6294753"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1400"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W6"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W6"/>
+            </a:rPr>
+            <a:t>人気の記事</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mj-lt"/>
+            <a:ea typeface="+mj-ea"/>
+            <a:cs typeface="+mj-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W6"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="457200" marR="0" indent="-317500" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzPct val="100000"/>
+            <a:buFont typeface="ヒラギノ角ゴ ProN W3"/>
+            <a:buChar char="•"/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>PHPオススメ本</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="457200" marR="0" indent="-317500" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzPct val="100000"/>
+            <a:buFont typeface="ヒラギノ角ゴ ProN W3"/>
+            <a:buChar char="•"/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>PHP MyAdminの使い方</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="457200" marR="0" indent="-317500" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzPct val="100000"/>
+            <a:buFont typeface="ヒラギノ角ゴ ProN W3"/>
+            <a:buChar char="•"/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>今人気のエディタ</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="457200" marR="0" indent="-317500" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzPct val="100000"/>
+            <a:buFont typeface="ヒラギノ角ゴ ProN W3"/>
+            <a:buChar char="•"/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>HTMLの基礎</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1400"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W6"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W6"/>
+            </a:rPr>
+            <a:t>オススメリンク</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mj-lt"/>
+            <a:ea typeface="+mj-ea"/>
+            <a:cs typeface="+mj-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W6"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="457200" marR="0" indent="-317500" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzPct val="100000"/>
+            <a:buFont typeface="ヒラギノ角ゴ ProN W3"/>
+            <a:buChar char="•"/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>ﾃﾞｨｰｱｲﾜｰｸｽ株式会社</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="457200" marR="0" indent="-317500" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzPct val="100000"/>
+            <a:buFont typeface="ヒラギノ角ゴ ProN W3"/>
+            <a:buChar char="•"/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>XAMPPのダウンロード</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="457200" marR="0" indent="-317500" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzPct val="100000"/>
+            <a:buFont typeface="ヒラギノ角ゴ ProN W3"/>
+            <a:buChar char="•"/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>Eclipseのダウンロード</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="457200" marR="0" indent="-317500" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzPct val="100000"/>
+            <a:buFont typeface="ヒラギノ角ゴ ProN W3"/>
+            <a:buChar char="•"/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>Braketsのダウンロード</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1400"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W6"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W6"/>
+            </a:rPr>
+            <a:t>カテゴリ</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mj-lt"/>
+            <a:ea typeface="+mj-ea"/>
+            <a:cs typeface="+mj-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W6"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="457200" marR="0" indent="-317500" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzPct val="100000"/>
+            <a:buFont typeface="ヒラギノ角ゴ ProN W3"/>
+            <a:buChar char="•"/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>HTML</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="457200" marR="0" indent="-317500" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzPct val="100000"/>
+            <a:buFont typeface="ヒラギノ角ゴ ProN W3"/>
+            <a:buChar char="•"/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>PHP</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="457200" marR="0" indent="-317500" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzPct val="100000"/>
+            <a:buFont typeface="ヒラギノ角ゴ ProN W3"/>
+            <a:buChar char="•"/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>MySQL</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="457200" marR="0" indent="-317500" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzPct val="100000"/>
+            <a:buFont typeface="ヒラギノ角ゴ ProN W3"/>
+            <a:buChar char="•"/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>JavaScript</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>490039</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>112846</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>754560</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>107734</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Copyright D.I.works D.I.blog is the one which provides A to Z about programming"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="490039" y="11636191"/>
+          <a:ext cx="8976722" cy="579089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>Copyright D.I.works D.I.blog is the one which provides A to Z about programming</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>621212</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>153361</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>48555</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="名前（姓）"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1865812" y="2123131"/>
+          <a:ext cx="1880688" cy="579090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>名前（姓）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>858258</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>191128</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95531</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>10788</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="四角形"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4592058" y="2160898"/>
+          <a:ext cx="2971074" cy="503556"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>198058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1165150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>186846</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="アカウント登録画面"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="-127211" y="1483933"/>
+          <a:ext cx="2409751" cy="672684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W6"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W6"/>
+            </a:rPr>
+            <a:t>アカウント登録画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>621212</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>214321</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>109515</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="名前（名）"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1865812" y="2867986"/>
+          <a:ext cx="1880688" cy="579090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>名前（名）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>621212</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>216226</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>111419</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="カナ（姓）"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1865812" y="3553786"/>
+          <a:ext cx="1880688" cy="579089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>カナ（姓）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>858258</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>24123</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95531</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>71748</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="四角形"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4592058" y="2905753"/>
+          <a:ext cx="2971074" cy="503556"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>858258</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>26027</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95531</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>73653</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="四角形"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4592058" y="3591552"/>
+          <a:ext cx="2971074" cy="503557"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>621212</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>218130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>113324</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="カナ（名）"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1865812" y="4239585"/>
+          <a:ext cx="1880688" cy="579090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>カナ（名）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>858258</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>27932</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95531</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>75557</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="四角形"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4592058" y="4277352"/>
+          <a:ext cx="2971074" cy="503556"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>237586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>25218</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>26686</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="バー"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="-12519" y="237586"/>
+          <a:ext cx="9982020" cy="12772946"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>バー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>621212</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>190507</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85701</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="メールアドレス"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1865812" y="4895857"/>
+          <a:ext cx="1880688" cy="579090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>メールアドレス</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>858258</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>309</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95531</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47934</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="四角形"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4592058" y="4933624"/>
+          <a:ext cx="2971074" cy="503556"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>621212</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>189849</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>184737</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="パスワード"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1865812" y="5579094"/>
+          <a:ext cx="1880689" cy="579089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>パスワード</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>858258</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>227616</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95531</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>146971</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="四角形"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4592058" y="5616861"/>
+          <a:ext cx="2971074" cy="503556"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>621212</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>49954</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>44842</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="郵便番号"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1865812" y="6899699"/>
+          <a:ext cx="1880689" cy="579089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>郵便番号</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>858258</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>87720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>99033</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>7075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="四角形"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4592058" y="6937465"/>
+          <a:ext cx="1729976" cy="503556"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>621212</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>256499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>251388</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="性別"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1865812" y="6229944"/>
+          <a:ext cx="1880689" cy="579090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>性別</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>839208</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>256499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114581</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>251388</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="◉男性  ○女性"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4573008" y="6229944"/>
+          <a:ext cx="3009174" cy="579090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>◉男性　　○女性</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>621213</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>135508</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>130397</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="住所（都道府県）"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1865813" y="7569453"/>
+          <a:ext cx="1880688" cy="579090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>住所（都道府県）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>839208</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>135508</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>118083</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>130397</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="北海道"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4573008" y="7569453"/>
+          <a:ext cx="1768076" cy="579090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>北海道</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>621213</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>208496</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>203384</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="住所（市区町村）"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1865813" y="8226641"/>
+          <a:ext cx="1880688" cy="579089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>住所（市区町村）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>858258</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>246262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95531</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>165618</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="四角形"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4592058" y="8264407"/>
+          <a:ext cx="2971074" cy="503557"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>621213</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38622</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>33511</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="住所（番地）"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1865813" y="8933067"/>
+          <a:ext cx="1880688" cy="579090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>住所（番地）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>858258</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76389</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95531</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>287844</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="四角形"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4592058" y="8970834"/>
+          <a:ext cx="2971074" cy="503556"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>621213</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>167187</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>162075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="アカウント権限"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1865813" y="9645832"/>
+          <a:ext cx="1880688" cy="579089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>アカウント権限</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>839208</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>167187</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>118083</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>162075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="一般"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4573008" y="9645832"/>
+          <a:ext cx="1768076" cy="579089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>一般</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>818620</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>227143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>210107</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>222031</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="確認する"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3307820" y="10874188"/>
+          <a:ext cx="1880688" cy="579089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>確認する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>112846</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>107734</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="フッター"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="-12700" y="11636191"/>
+          <a:ext cx="9982201" cy="579089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>フッター</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>229030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>224455</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="ナビゲーションバー"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="-6351" y="1039925"/>
+          <a:ext cx="9982201" cy="470406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>ナビゲーションバー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>621212</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="名前（姓）"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1865812" y="2123131"/>
+          <a:ext cx="1880688" cy="579090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>名前（姓）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>839208</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114581</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="やまだ"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4573008" y="2123131"/>
+          <a:ext cx="3009174" cy="579090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>やまだ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>197423</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1165150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>186211</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="アカウント登録確認画面"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="-127211" y="1483933"/>
+          <a:ext cx="2409751" cy="672684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W6"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W6"/>
+            </a:rPr>
+            <a:t>アカウント登録確認画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>621212</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>213686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>108880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="名前（名）"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1865812" y="2867986"/>
+          <a:ext cx="1880688" cy="579090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>名前（名）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>621212</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>215591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>110784</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="カナ（姓）"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1865812" y="3553786"/>
+          <a:ext cx="1880688" cy="579089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>カナ（姓）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>839208</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>213686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114581</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>108880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="たろう"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4573008" y="2867986"/>
+          <a:ext cx="3009174" cy="579090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>たろう</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>839208</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>215591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114581</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>110784</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="ヤマダ"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4573008" y="3553786"/>
+          <a:ext cx="3009174" cy="579089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>ヤマダ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>621212</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>217495</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>112689</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="カナ（名）"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1865812" y="4239585"/>
+          <a:ext cx="1880688" cy="579090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>カナ（名）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>839208</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>217495</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114581</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>112689</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="タロウ"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4573008" y="4239585"/>
+          <a:ext cx="3009174" cy="579090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>タロウ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>227340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>26766</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="バー"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="-12700" y="227340"/>
+          <a:ext cx="9982201" cy="12783907"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>バー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>621212</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>189872</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85066</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="メールアドレス"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1865812" y="4895857"/>
+          <a:ext cx="1880688" cy="579090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>メールアドレス</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>839208</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>189872</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114581</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85066</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="yamada@gamil.com"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4573008" y="4895857"/>
+          <a:ext cx="3009174" cy="579090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+              <a:hlinkClick r:id="rId1" invalidUrl="" action="" tgtFrame="" tooltip="" history="1" highlightClick="0" endSnd="0"/>
+            </a:rPr>
+            <a:t>yamada@gamil.com</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>621212</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>189214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>184102</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="パスワード"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1865812" y="5579094"/>
+          <a:ext cx="1880689" cy="579089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>パスワード</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>839208</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>189214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114581</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>184102</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="●●●●●●"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4573008" y="5579094"/>
+          <a:ext cx="3009174" cy="579089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>●●●●●●</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>621212</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>49319</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>44207</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="郵便番号"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1865812" y="6899699"/>
+          <a:ext cx="1880689" cy="579089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>郵便番号</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>839208</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>49319</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>118083</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>44207</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="1234567"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4573008" y="6899699"/>
+          <a:ext cx="1768076" cy="579089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>1234567</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>621212</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>255864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>250753</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="性別"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1865812" y="6229944"/>
+          <a:ext cx="1880689" cy="579090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>性別</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>839208</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>255864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114581</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>250753</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="◉男性  ○女性"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4573008" y="6229944"/>
+          <a:ext cx="3009174" cy="579090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>◉男性　　○女性</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>621213</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>134873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>129762</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="住所（都道府県）"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1865813" y="7569453"/>
+          <a:ext cx="1880688" cy="579090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>住所（都道府県）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>839208</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>134873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>118083</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>129762</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="北海道"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4573008" y="7569453"/>
+          <a:ext cx="1768076" cy="579090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>北海道</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>621213</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>207861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>202749</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="住所（市区町村）"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1865813" y="8226641"/>
+          <a:ext cx="1880688" cy="579089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>住所（市区町村）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>839208</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>207861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114581</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>202749</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="旭川市"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4573008" y="8226641"/>
+          <a:ext cx="3009174" cy="579089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>旭川市</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>621213</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>37987</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>32876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="住所（番地）"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1865813" y="8933067"/>
+          <a:ext cx="1880688" cy="579090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>住所（番地）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>839208</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>37987</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114581</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>32876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="1-2-3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4573008" y="8933067"/>
+          <a:ext cx="3009174" cy="579090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>1-2-3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>621213</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>166552</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>161440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="アカウント権限"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1865813" y="9645832"/>
+          <a:ext cx="1880688" cy="579089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>アカウント権限</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>839208</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>166552</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>118083</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>161440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="一般"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4573008" y="9645832"/>
+          <a:ext cx="1768076" cy="579089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>一般</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1242230</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>223029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>633717</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>217917</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="登録する"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4976030" y="10870709"/>
+          <a:ext cx="1880688" cy="579089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>登録する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>112211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>107099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="フッター"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="-12700" y="11636191"/>
+          <a:ext cx="9982201" cy="579089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>フッター</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>229030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>223820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="ナビゲーションバー"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="-6351" y="1039925"/>
+          <a:ext cx="9982201" cy="470406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>ナビゲーションバー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152705</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>223029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>788792</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>217917</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="前に戻る"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2641905" y="10870709"/>
+          <a:ext cx="1880688" cy="579089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>前に戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>198058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1165150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>186846</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="アカウント登録完了画面"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="-127211" y="1483933"/>
+          <a:ext cx="2409751" cy="672684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W6"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W6"/>
+            </a:rPr>
+            <a:t>アカウント登録完了画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352621</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>912639</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>70566</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="登録完了しました"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2841821" y="4410807"/>
+          <a:ext cx="4293819" cy="1341105"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="2600" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W6"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="2600" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W6"/>
+            </a:rPr>
+            <a:t>登録完了しました</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>17712</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>69968</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="四角形"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6350" y="1069272"/>
+          <a:ext cx="9944101" cy="11108242"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1146273</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>252407</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>118987</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>247295</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="TOPページに戻る"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3635473" y="10023152"/>
+          <a:ext cx="2706515" cy="579089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>TOPページに戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>112846</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>107734</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="フッター"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="-12700" y="11636191"/>
+          <a:ext cx="9982201" cy="579089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>フッター</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>229030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>224455</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="112" name="ナビゲーションバー"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="-6351" y="1039925"/>
+          <a:ext cx="9982201" cy="470406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>ナビゲーションバー</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3960,6 +11271,86 @@
         <v>21</v>
       </c>
     </row>
+    <row r="19">
+      <c r="B19" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="4"/>
+      <c r="C20" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="4"/>
+      <c r="C22" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="4"/>
+      <c r="C24" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="4"/>
+      <c r="C26" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="4"/>
+      <c r="C28" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s" s="5">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:D3"/>
@@ -3970,7 +11361,566 @@
     <hyperlink ref="D14" location="'IO関連図(アカウント更新)'!R2C1" tooltip="" display="IO関連図(アカウント更新)"/>
     <hyperlink ref="D16" location="'IO関連図(アカウント削除)'!R2C1" tooltip="" display="IO関連図(アカウント削除)"/>
     <hyperlink ref="D18" location="'IO関連図(アカウント検索)'!R2C1" tooltip="" display="IO関連図(アカウント検索)"/>
+    <hyperlink ref="D20" location="'画面レイアウト(ログイン)'!R2C1" tooltip="" display="画面レイアウト(ログイン)"/>
+    <hyperlink ref="D22" location="'画面レイアウト(TOPページ)'!R2C1" tooltip="" display="画面レイアウト(TOPページ)"/>
+    <hyperlink ref="D24" location="'画面レイアウト(アカウント登録)'!R2C1" tooltip="" display="画面レイアウト(アカウント登録)"/>
+    <hyperlink ref="D26" location="'画面レイアウト(アカウント登録確認画面)'!R2C1" tooltip="" display="画面レイアウト(アカウント登録確認画面)"/>
+    <hyperlink ref="D28" location="'画面レイアウト(アカウント登録完了画面)'!R2C1" tooltip="" display="画面レイアウト(アカウント登録完了画面)"/>
   </hyperlinks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="8" width="19.6016" style="34" customWidth="1"/>
+    <col min="9" max="16384" width="19.6016" style="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25.95" customHeight="1">
+      <c r="A1" t="s" s="20">
+        <v>5</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+    </row>
+    <row r="2" ht="18.95" customHeight="1">
+      <c r="A2" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" ht="18.95" customHeight="1">
+      <c r="A3" t="s" s="29">
+        <v>6</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" t="s" s="29">
+        <v>24</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" ht="19" customHeight="1">
+      <c r="A4" t="s" s="29">
+        <v>25</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" t="s" s="29">
+        <v>32</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" ht="18.45" customHeight="1">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+    </row>
+    <row r="6" ht="17.95" customHeight="1">
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+    </row>
+    <row r="7" ht="17.95" customHeight="1">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+    </row>
+    <row r="8" ht="17.95" customHeight="1">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+    </row>
+    <row r="9" ht="17.95" customHeight="1">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+    </row>
+    <row r="10" ht="17.95" customHeight="1">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+    </row>
+    <row r="11" ht="17.95" customHeight="1">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+    </row>
+    <row r="12" ht="17.95" customHeight="1">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+    </row>
+    <row r="13" ht="17.95" customHeight="1">
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+    </row>
+    <row r="14" ht="17.95" customHeight="1">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+    </row>
+    <row r="15" ht="17.95" customHeight="1">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+    </row>
+    <row r="16" ht="17.95" customHeight="1">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+    </row>
+    <row r="17" ht="17.95" customHeight="1">
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+    </row>
+    <row r="18" ht="17.95" customHeight="1">
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+    </row>
+    <row r="19" ht="17.95" customHeight="1">
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+    </row>
+    <row r="20" ht="17.95" customHeight="1">
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+    </row>
+    <row r="21" ht="17.95" customHeight="1">
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+    </row>
+    <row r="22" ht="17.95" customHeight="1">
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+    </row>
+    <row r="23" ht="17.95" customHeight="1">
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="8" width="19.6016" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="19.6016" style="35" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25.95" customHeight="1">
+      <c r="A1" t="s" s="20">
+        <v>5</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+    </row>
+    <row r="2" ht="18.95" customHeight="1">
+      <c r="A2" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" ht="18.95" customHeight="1">
+      <c r="A3" t="s" s="29">
+        <v>6</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" t="s" s="29">
+        <v>24</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" ht="18.95" customHeight="1">
+      <c r="A4" t="s" s="29">
+        <v>25</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" t="s" s="29">
+        <v>34</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" ht="18.45" customHeight="1">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+    </row>
+    <row r="6" ht="17.95" customHeight="1">
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+    </row>
+    <row r="7" ht="17.95" customHeight="1">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+    </row>
+    <row r="8" ht="17.95" customHeight="1">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+    </row>
+    <row r="9" ht="17.95" customHeight="1">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+    </row>
+    <row r="10" ht="17.95" customHeight="1">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+    </row>
+    <row r="11" ht="17.95" customHeight="1">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+    </row>
+    <row r="12" ht="17.95" customHeight="1">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+    </row>
+    <row r="13" ht="17.95" customHeight="1">
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+    </row>
+    <row r="14" ht="17.95" customHeight="1">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+    </row>
+    <row r="15" ht="17.95" customHeight="1">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+    </row>
+    <row r="16" ht="17.95" customHeight="1">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+    </row>
+    <row r="17" ht="17.95" customHeight="1">
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+    </row>
+    <row r="18" ht="17.95" customHeight="1">
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+    </row>
+    <row r="19" ht="17.95" customHeight="1">
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+    </row>
+    <row r="20" ht="17.95" customHeight="1">
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+    </row>
+    <row r="21" ht="17.95" customHeight="1">
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+    </row>
+    <row r="22" ht="17.95" customHeight="1">
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+    </row>
+    <row r="23" ht="17.95" customHeight="1">
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5284,4 +13234,835 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="8" width="19.6016" style="26" customWidth="1"/>
+    <col min="9" max="16384" width="19.6016" style="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25.95" customHeight="1">
+      <c r="A1" t="s" s="20">
+        <v>5</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+    </row>
+    <row r="2" ht="18.95" customHeight="1">
+      <c r="A2" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" ht="18.95" customHeight="1">
+      <c r="A3" t="s" s="29">
+        <v>6</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" t="s" s="29">
+        <v>24</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" ht="18.95" customHeight="1">
+      <c r="A4" t="s" s="29">
+        <v>25</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" t="s" s="29">
+        <v>26</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" ht="18.45" customHeight="1">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+    </row>
+    <row r="6" ht="17.95" customHeight="1">
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+    </row>
+    <row r="7" ht="17.95" customHeight="1">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+    </row>
+    <row r="8" ht="17.95" customHeight="1">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+    </row>
+    <row r="9" ht="17.95" customHeight="1">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+    </row>
+    <row r="10" ht="17.95" customHeight="1">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+    </row>
+    <row r="11" ht="17.95" customHeight="1">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+    </row>
+    <row r="12" ht="17.95" customHeight="1">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+    </row>
+    <row r="13" ht="17.95" customHeight="1">
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+    </row>
+    <row r="14" ht="17.95" customHeight="1">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+    </row>
+    <row r="15" ht="17.95" customHeight="1">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+    </row>
+    <row r="16" ht="17.95" customHeight="1">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+    </row>
+    <row r="17" ht="17.95" customHeight="1">
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+    </row>
+    <row r="18" ht="17.95" customHeight="1">
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+    </row>
+    <row r="19" ht="17.95" customHeight="1">
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+    </row>
+    <row r="20" ht="17.95" customHeight="1">
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+    </row>
+    <row r="21" ht="17.95" customHeight="1">
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+    </row>
+    <row r="22" ht="17.95" customHeight="1">
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+    </row>
+    <row r="23" ht="17.95" customHeight="1">
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="8" width="19.6016" style="32" customWidth="1"/>
+    <col min="9" max="16384" width="19.6016" style="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25.95" customHeight="1">
+      <c r="A1" t="s" s="20">
+        <v>5</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+    </row>
+    <row r="2" ht="18.95" customHeight="1">
+      <c r="A2" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" ht="18.95" customHeight="1">
+      <c r="A3" t="s" s="29">
+        <v>6</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" t="s" s="29">
+        <v>24</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" ht="18.95" customHeight="1">
+      <c r="A4" t="s" s="29">
+        <v>25</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" t="s" s="29">
+        <v>28</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" ht="18.45" customHeight="1">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+    </row>
+    <row r="6" ht="17.95" customHeight="1">
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+    </row>
+    <row r="7" ht="17.95" customHeight="1">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+    </row>
+    <row r="8" ht="17.95" customHeight="1">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+    </row>
+    <row r="9" ht="17.95" customHeight="1">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+    </row>
+    <row r="10" ht="17.95" customHeight="1">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+    </row>
+    <row r="11" ht="17.95" customHeight="1">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+    </row>
+    <row r="12" ht="17.95" customHeight="1">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+    </row>
+    <row r="13" ht="17.95" customHeight="1">
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+    </row>
+    <row r="14" ht="17.95" customHeight="1">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+    </row>
+    <row r="15" ht="17.95" customHeight="1">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+    </row>
+    <row r="16" ht="17.95" customHeight="1">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+    </row>
+    <row r="17" ht="17.95" customHeight="1">
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+    </row>
+    <row r="18" ht="17.95" customHeight="1">
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+    </row>
+    <row r="19" ht="17.95" customHeight="1">
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+    </row>
+    <row r="20" ht="17.95" customHeight="1">
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+    </row>
+    <row r="21" ht="17.95" customHeight="1">
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+    </row>
+    <row r="22" ht="17.95" customHeight="1">
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+    </row>
+    <row r="23" ht="17.95" customHeight="1">
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="8" width="19.6016" style="33" customWidth="1"/>
+    <col min="9" max="16384" width="19.6016" style="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25.95" customHeight="1">
+      <c r="A1" t="s" s="20">
+        <v>5</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+    </row>
+    <row r="2" ht="18.95" customHeight="1">
+      <c r="A2" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" ht="18.95" customHeight="1">
+      <c r="A3" t="s" s="29">
+        <v>6</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" t="s" s="29">
+        <v>24</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" ht="18.95" customHeight="1">
+      <c r="A4" t="s" s="29">
+        <v>25</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" t="s" s="29">
+        <v>30</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" ht="18.45" customHeight="1">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+    </row>
+    <row r="6" ht="17.95" customHeight="1">
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+    </row>
+    <row r="7" ht="17.95" customHeight="1">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+    </row>
+    <row r="8" ht="17.95" customHeight="1">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+    </row>
+    <row r="9" ht="17.95" customHeight="1">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+    </row>
+    <row r="10" ht="17.95" customHeight="1">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+    </row>
+    <row r="11" ht="17.95" customHeight="1">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+    </row>
+    <row r="12" ht="17.95" customHeight="1">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+    </row>
+    <row r="13" ht="17.95" customHeight="1">
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+    </row>
+    <row r="14" ht="17.95" customHeight="1">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+    </row>
+    <row r="15" ht="17.95" customHeight="1">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+    </row>
+    <row r="16" ht="17.95" customHeight="1">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+    </row>
+    <row r="17" ht="17.95" customHeight="1">
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+    </row>
+    <row r="18" ht="17.95" customHeight="1">
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+    </row>
+    <row r="19" ht="17.95" customHeight="1">
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+    </row>
+    <row r="20" ht="17.95" customHeight="1">
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+    </row>
+    <row r="21" ht="17.95" customHeight="1">
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+    </row>
+    <row r="22" ht="17.95" customHeight="1">
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+    </row>
+    <row r="23" ht="17.95" customHeight="1">
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/基本設計・詳細設計/基本設計書.xlsx
+++ b/基本設計・詳細設計/基本設計書.xlsx
@@ -573,7 +573,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -711,6 +711,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -1379,7 +1382,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="165" name="名前（姓）"/>
+        <xdr:cNvPr id="172" name="名前（姓）"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1467,7 +1470,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="166" name="やまだ"/>
+        <xdr:cNvPr id="173" name="やまだ"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1560,7 +1563,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="167" name="アカウント更新画面"/>
+        <xdr:cNvPr id="174" name="アカウント更新画面"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1650,7 +1653,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="168" name="名前（名）"/>
+        <xdr:cNvPr id="175" name="名前（名）"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1738,7 +1741,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="169" name="カナ（姓）"/>
+        <xdr:cNvPr id="176" name="カナ（姓）"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1826,7 +1829,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="170" name="たろう"/>
+        <xdr:cNvPr id="177" name="たろう"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1919,7 +1922,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="171" name="ヤマダ"/>
+        <xdr:cNvPr id="178" name="ヤマダ"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2012,7 +2015,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="172" name="カナ（名）"/>
+        <xdr:cNvPr id="179" name="カナ（名）"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2100,7 +2103,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="173" name="タロウ"/>
+        <xdr:cNvPr id="180" name="タロウ"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2193,7 +2196,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="174" name="四角形"/>
+        <xdr:cNvPr id="181" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2239,7 +2242,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="175" name="メールアドレス"/>
+        <xdr:cNvPr id="182" name="メールアドレス"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2329,7 +2332,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="176" name="yamada@gamil.com"/>
+        <xdr:cNvPr id="183" name="yamada@gamil.com"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2423,7 +2426,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="177" name="パスワード"/>
+        <xdr:cNvPr id="184" name="パスワード"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2513,7 +2516,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="178" name="四角形"/>
+        <xdr:cNvPr id="185" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2561,7 +2564,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="179" name="郵便番号"/>
+        <xdr:cNvPr id="186" name="郵便番号"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2651,7 +2654,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="180" name="1234567"/>
+        <xdr:cNvPr id="187" name="1234567"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2744,7 +2747,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="181" name="性別"/>
+        <xdr:cNvPr id="188" name="性別"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2834,7 +2837,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="182" name="◉男性  ○女性"/>
+        <xdr:cNvPr id="189" name="◉男性  ○女性"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2924,7 +2927,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="183" name="住所（都道府県）"/>
+        <xdr:cNvPr id="190" name="住所（都道府県）"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3014,7 +3017,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="184" name="北海道"/>
+        <xdr:cNvPr id="191" name="北海道"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3107,7 +3110,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="185" name="住所（市区町村）"/>
+        <xdr:cNvPr id="192" name="住所（市区町村）"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3197,7 +3200,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="186" name="旭川市"/>
+        <xdr:cNvPr id="193" name="旭川市"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3290,7 +3293,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="187" name="住所（番地）"/>
+        <xdr:cNvPr id="194" name="住所（番地）"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3380,7 +3383,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="188" name="1-2-3"/>
+        <xdr:cNvPr id="195" name="1-2-3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3473,7 +3476,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="189" name="アカウント権限"/>
+        <xdr:cNvPr id="196" name="アカウント権限"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3563,7 +3566,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="190" name="一般"/>
+        <xdr:cNvPr id="197" name="一般"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3656,7 +3659,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="191" name="確認する"/>
+        <xdr:cNvPr id="198" name="確認する"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3749,7 +3752,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="192" name="フッター"/>
+        <xdr:cNvPr id="199" name="フッター"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3842,7 +3845,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="193" name="ナビゲーションバー"/>
+        <xdr:cNvPr id="200" name="ナビゲーションバー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3933,7 +3936,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="194" name="アカウント更新確認画面"/>
+        <xdr:cNvPr id="201" name="アカウント更新確認画面"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4067,7 +4070,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="195" name="四角形"/>
+        <xdr:cNvPr id="202" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4113,7 +4116,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="196" name="更新する"/>
+        <xdr:cNvPr id="203" name="更新する"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4206,7 +4209,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="197" name="フッター"/>
+        <xdr:cNvPr id="204" name="フッター"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4299,7 +4302,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="198" name="ナビゲーションバー"/>
+        <xdr:cNvPr id="205" name="ナビゲーションバー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4386,11 +4389,11 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>1165150</xdr:colOff>
       <xdr:row>114</xdr:row>
-      <xdr:rowOff>76515</xdr:rowOff>
+      <xdr:rowOff>51115</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="199" name="アカウント更新完了画面"/>
+        <xdr:cNvPr id="206" name="アカウント更新完了画面"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4520,11 +4523,11 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>157</xdr:row>
-      <xdr:rowOff>40642</xdr:rowOff>
+      <xdr:rowOff>15242</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="200" name="四角形"/>
+        <xdr:cNvPr id="207" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4557,26 +4560,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1212850</xdr:colOff>
-      <xdr:row>151</xdr:row>
-      <xdr:rowOff>64449</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>984613</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>116293</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>604337</xdr:colOff>
-      <xdr:row>153</xdr:row>
-      <xdr:rowOff>187608</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>263488</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>30998</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="201" name="ログアウト"/>
+        <xdr:cNvPr id="208" name="ログアウト"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4946650" y="34633214"/>
-          <a:ext cx="1880688" cy="579090"/>
+          <a:off x="8452213" y="25332143"/>
+          <a:ext cx="1768076" cy="376986"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4585,10 +4588,7 @@
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="12700" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+          <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
@@ -4619,7 +4619,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="sng">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -4631,7 +4631,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="sng">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -4663,12 +4663,12 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="202" name="フッター"/>
+        <xdr:cNvPr id="209" name="フッター"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="-38101" y="35439218"/>
+          <a:off x="-38101" y="35464618"/>
           <a:ext cx="9982201" cy="579089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4756,7 +4756,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="203" name="ナビゲーションバー"/>
+        <xdr:cNvPr id="210" name="ナビゲーションバー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4847,12 +4847,12 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="204" name="アカウントの更新が完了しました"/>
+        <xdr:cNvPr id="211" name="アカウントの更新が完了しました"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2189169" y="29629504"/>
+          <a:off x="2189169" y="29654904"/>
           <a:ext cx="5578462" cy="1341105"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4935,7 +4935,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="205" name="前に戻る"/>
+        <xdr:cNvPr id="212" name="前に戻る"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5015,26 +5015,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>165967</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285206</xdr:colOff>
       <xdr:row>151</xdr:row>
       <xdr:rowOff>64449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>802055</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>921293</xdr:colOff>
       <xdr:row>153</xdr:row>
       <xdr:rowOff>187608</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="206" name="TOPページへ戻る"/>
+        <xdr:cNvPr id="213" name="TOPページへ戻る"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2655167" y="34633214"/>
-          <a:ext cx="1880689" cy="579090"/>
+          <a:off x="4019006" y="34658614"/>
+          <a:ext cx="1880688" cy="579090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5121,7 +5121,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="207" name="パスワード変更の有無"/>
+        <xdr:cNvPr id="214" name="パスワード変更の有無"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5211,7 +5211,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="208" name="◉変更しない ○変更する"/>
+        <xdr:cNvPr id="215" name="◉変更しない ○変更する"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5301,7 +5301,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="209" name="表示"/>
+        <xdr:cNvPr id="216" name="表示"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5394,7 +5394,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="210" name="名前（姓）"/>
+        <xdr:cNvPr id="217" name="名前（姓）"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5482,7 +5482,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="211" name="やまだ"/>
+        <xdr:cNvPr id="218" name="やまだ"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5572,7 +5572,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="212" name="名前（名）"/>
+        <xdr:cNvPr id="219" name="名前（名）"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5660,7 +5660,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="213" name="カナ（姓）"/>
+        <xdr:cNvPr id="220" name="カナ（姓）"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5748,7 +5748,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="214" name="たろう"/>
+        <xdr:cNvPr id="221" name="たろう"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5838,7 +5838,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="215" name="ヤマダ"/>
+        <xdr:cNvPr id="222" name="ヤマダ"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5928,7 +5928,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="216" name="カナ（名）"/>
+        <xdr:cNvPr id="223" name="カナ（名）"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6016,7 +6016,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="217" name="タロウ"/>
+        <xdr:cNvPr id="224" name="タロウ"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6106,7 +6106,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="218" name="メールアドレス"/>
+        <xdr:cNvPr id="225" name="メールアドレス"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6196,7 +6196,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="219" name="yamada@gamil.com"/>
+        <xdr:cNvPr id="226" name="yamada@gamil.com"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6287,7 +6287,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="220" name="郵便番号"/>
+        <xdr:cNvPr id="227" name="郵便番号"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6377,7 +6377,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="221" name="1234567"/>
+        <xdr:cNvPr id="228" name="1234567"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6467,7 +6467,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="222" name="性別"/>
+        <xdr:cNvPr id="229" name="性別"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6557,7 +6557,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="223" name="男性"/>
+        <xdr:cNvPr id="230" name="男性"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6647,7 +6647,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="224" name="住所（都道府県）"/>
+        <xdr:cNvPr id="231" name="住所（都道府県）"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6737,7 +6737,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="225" name="北海道"/>
+        <xdr:cNvPr id="232" name="北海道"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6827,7 +6827,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="226" name="住所（市区町村）"/>
+        <xdr:cNvPr id="233" name="住所（市区町村）"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6917,7 +6917,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="227" name="旭川市"/>
+        <xdr:cNvPr id="234" name="旭川市"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7007,7 +7007,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="228" name="住所（番地）"/>
+        <xdr:cNvPr id="235" name="住所（番地）"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7097,7 +7097,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="229" name="1-2-3"/>
+        <xdr:cNvPr id="236" name="1-2-3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7187,7 +7187,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="230" name="アカウント権限"/>
+        <xdr:cNvPr id="237" name="アカウント権限"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7277,7 +7277,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="231" name="一般"/>
+        <xdr:cNvPr id="238" name="一般"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7367,7 +7367,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="232" name="アカウント更新確認画面"/>
+        <xdr:cNvPr id="239" name="アカウント更新確認画面"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7501,7 +7501,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="233" name="四角形"/>
+        <xdr:cNvPr id="240" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7547,7 +7547,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="234" name="登録する"/>
+        <xdr:cNvPr id="241" name="登録する"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7640,7 +7640,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="235" name="フッター"/>
+        <xdr:cNvPr id="242" name="フッター"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7733,7 +7733,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="236" name="ナビゲーションバー"/>
+        <xdr:cNvPr id="243" name="ナビゲーションバー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7824,7 +7824,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="237" name="前に戻る"/>
+        <xdr:cNvPr id="244" name="前に戻る"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7917,7 +7917,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="238" name="名前（姓）"/>
+        <xdr:cNvPr id="245" name="名前（姓）"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8005,7 +8005,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="239" name="やまだ"/>
+        <xdr:cNvPr id="246" name="やまだ"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8095,7 +8095,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="240" name="名前（名）"/>
+        <xdr:cNvPr id="247" name="名前（名）"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8183,7 +8183,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="241" name="カナ（姓）"/>
+        <xdr:cNvPr id="248" name="カナ（姓）"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8271,7 +8271,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="242" name="たろう"/>
+        <xdr:cNvPr id="249" name="たろう"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8361,7 +8361,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="243" name="ヤマダ"/>
+        <xdr:cNvPr id="250" name="ヤマダ"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8451,7 +8451,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="244" name="カナ（名）"/>
+        <xdr:cNvPr id="251" name="カナ（名）"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8539,7 +8539,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="245" name="タロウ"/>
+        <xdr:cNvPr id="252" name="タロウ"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8629,7 +8629,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="246" name="メールアドレス"/>
+        <xdr:cNvPr id="253" name="メールアドレス"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8719,7 +8719,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="247" name="yamada@gamil.com"/>
+        <xdr:cNvPr id="254" name="yamada@gamil.com"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8810,7 +8810,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="248" name="郵便番号"/>
+        <xdr:cNvPr id="255" name="郵便番号"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8900,7 +8900,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="249" name="1234567"/>
+        <xdr:cNvPr id="256" name="1234567"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8990,7 +8990,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="250" name="性別"/>
+        <xdr:cNvPr id="257" name="性別"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9080,7 +9080,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="251" name="男性"/>
+        <xdr:cNvPr id="258" name="男性"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9170,7 +9170,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="252" name="住所（都道府県）"/>
+        <xdr:cNvPr id="259" name="住所（都道府県）"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9260,7 +9260,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="253" name="北海道"/>
+        <xdr:cNvPr id="260" name="北海道"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9350,7 +9350,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="254" name="住所（市区町村）"/>
+        <xdr:cNvPr id="261" name="住所（市区町村）"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9440,7 +9440,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="255" name="旭川市"/>
+        <xdr:cNvPr id="262" name="旭川市"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9530,7 +9530,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="256" name="住所（番地）"/>
+        <xdr:cNvPr id="263" name="住所（番地）"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9620,7 +9620,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="257" name="1-2-3"/>
+        <xdr:cNvPr id="264" name="1-2-3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9710,7 +9710,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="258" name="アカウント権限"/>
+        <xdr:cNvPr id="265" name="アカウント権限"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9800,7 +9800,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="259" name="一般"/>
+        <xdr:cNvPr id="266" name="一般"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9890,7 +9890,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="260" name="パスワード"/>
+        <xdr:cNvPr id="267" name="パスワード"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9980,7 +9980,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="261" name="●●●●●●●●●"/>
+        <xdr:cNvPr id="268" name="●●●●●●●●●"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10070,13 +10070,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="262" name="四角形"/>
+        <xdr:cNvPr id="269" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11220450" y="1131137"/>
-          <a:ext cx="9944101" cy="10685162"/>
+          <a:ext cx="9944100" cy="10685162"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10104,7 +10104,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>178667</xdr:colOff>
+      <xdr:colOff>178668</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>86138</xdr:rowOff>
     </xdr:from>
@@ -10116,13 +10116,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="263" name="名前（姓）"/>
+        <xdr:cNvPr id="270" name="名前（姓）"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13869267" y="1726343"/>
-          <a:ext cx="1880689" cy="579089"/>
+          <a:off x="13869268" y="1726343"/>
+          <a:ext cx="1880688" cy="579089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10192,7 +10192,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>396663</xdr:colOff>
+      <xdr:colOff>396664</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>86138</xdr:rowOff>
     </xdr:from>
@@ -10204,13 +10204,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="264" name="やまだ"/>
+        <xdr:cNvPr id="271" name="やまだ"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16576463" y="1726343"/>
-          <a:ext cx="3009175" cy="579089"/>
+          <a:off x="16576464" y="1726343"/>
+          <a:ext cx="3009174" cy="579089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10285,7 +10285,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>117549</xdr:colOff>
+      <xdr:colOff>117550</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>178987</xdr:rowOff>
     </xdr:from>
@@ -10297,13 +10297,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="265" name="アカウント更新画面"/>
+        <xdr:cNvPr id="272" name="アカウント更新画面"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11318949" y="1135297"/>
-          <a:ext cx="2409752" cy="672684"/>
+          <a:off x="11318950" y="1135297"/>
+          <a:ext cx="2409751" cy="672684"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10375,7 +10375,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>178667</xdr:colOff>
+      <xdr:colOff>178668</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>147098</xdr:rowOff>
     </xdr:from>
@@ -10387,13 +10387,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="266" name="名前（名）"/>
+        <xdr:cNvPr id="273" name="名前（名）"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13869267" y="2471198"/>
-          <a:ext cx="1880689" cy="579089"/>
+          <a:off x="13869268" y="2471198"/>
+          <a:ext cx="1880688" cy="579089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10463,7 +10463,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>178667</xdr:colOff>
+      <xdr:colOff>178668</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>149003</xdr:rowOff>
     </xdr:from>
@@ -10475,13 +10475,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="267" name="カナ（姓）"/>
+        <xdr:cNvPr id="274" name="カナ（姓）"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13869267" y="3156998"/>
-          <a:ext cx="1880689" cy="579089"/>
+          <a:off x="13869268" y="3156998"/>
+          <a:ext cx="1880688" cy="579089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10551,7 +10551,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>396663</xdr:colOff>
+      <xdr:colOff>396664</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>147098</xdr:rowOff>
     </xdr:from>
@@ -10563,13 +10563,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="268" name="たろう"/>
+        <xdr:cNvPr id="275" name="たろう"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16576463" y="2471198"/>
-          <a:ext cx="3009175" cy="579089"/>
+          <a:off x="16576464" y="2471198"/>
+          <a:ext cx="3009174" cy="579089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10644,7 +10644,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>396663</xdr:colOff>
+      <xdr:colOff>396664</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>149003</xdr:rowOff>
     </xdr:from>
@@ -10656,13 +10656,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="269" name="ヤマダ"/>
+        <xdr:cNvPr id="276" name="ヤマダ"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16576463" y="3156998"/>
-          <a:ext cx="3009175" cy="579089"/>
+          <a:off x="16576464" y="3156998"/>
+          <a:ext cx="3009174" cy="579089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10737,7 +10737,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>178667</xdr:colOff>
+      <xdr:colOff>178668</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>150907</xdr:rowOff>
     </xdr:from>
@@ -10749,13 +10749,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="270" name="カナ（名）"/>
+        <xdr:cNvPr id="277" name="カナ（名）"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13869267" y="3842797"/>
-          <a:ext cx="1880689" cy="579090"/>
+          <a:off x="13869268" y="3842797"/>
+          <a:ext cx="1880688" cy="579090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10825,7 +10825,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>396663</xdr:colOff>
+      <xdr:colOff>396664</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>150907</xdr:rowOff>
     </xdr:from>
@@ -10837,13 +10837,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="271" name="タロウ"/>
+        <xdr:cNvPr id="278" name="タロウ"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16576463" y="3842797"/>
-          <a:ext cx="3009175" cy="579090"/>
+          <a:off x="16576464" y="3842797"/>
+          <a:ext cx="3009174" cy="579090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10918,7 +10918,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>178667</xdr:colOff>
+      <xdr:colOff>178668</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>123284</xdr:rowOff>
     </xdr:from>
@@ -10930,13 +10930,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="272" name="メールアドレス"/>
+        <xdr:cNvPr id="279" name="メールアドレス"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13869267" y="4499069"/>
-          <a:ext cx="1880689" cy="579090"/>
+          <a:off x="13869268" y="4499069"/>
+          <a:ext cx="1880688" cy="579090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11008,7 +11008,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>396663</xdr:colOff>
+      <xdr:colOff>396664</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>123284</xdr:rowOff>
     </xdr:from>
@@ -11020,13 +11020,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="273" name="yamada@gamil.com"/>
+        <xdr:cNvPr id="280" name="yamada@gamil.com"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16576463" y="4499069"/>
-          <a:ext cx="3009175" cy="579090"/>
+          <a:off x="16576464" y="4499069"/>
+          <a:ext cx="3009174" cy="579090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11102,7 +11102,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>178667</xdr:colOff>
+      <xdr:colOff>178668</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>154717</xdr:rowOff>
     </xdr:from>
@@ -11114,13 +11114,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="274" name="パスワード"/>
+        <xdr:cNvPr id="281" name="パスワード"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13869267" y="5214397"/>
-          <a:ext cx="1880689" cy="579089"/>
+          <a:off x="13869268" y="5214397"/>
+          <a:ext cx="1880688" cy="579089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11192,7 +11192,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>396663</xdr:colOff>
+      <xdr:colOff>396664</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>154717</xdr:rowOff>
     </xdr:from>
@@ -11204,13 +11204,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="275" name="●●●●●●●●●"/>
+        <xdr:cNvPr id="282" name="●●●●●●●●●"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16576463" y="5214397"/>
-          <a:ext cx="3009175" cy="579089"/>
+          <a:off x="16576464" y="5214397"/>
+          <a:ext cx="3009174" cy="579089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11285,7 +11285,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>165967</xdr:colOff>
+      <xdr:colOff>165968</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>60371</xdr:rowOff>
     </xdr:from>
@@ -11297,13 +11297,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="276" name="郵便番号"/>
+        <xdr:cNvPr id="283" name="郵便番号"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13856567" y="7171736"/>
-          <a:ext cx="1880689" cy="579090"/>
+          <a:off x="13856568" y="7171736"/>
+          <a:ext cx="1880688" cy="579090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11375,24 +11375,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>383963</xdr:colOff>
+      <xdr:colOff>383964</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>60371</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>907438</xdr:colOff>
+      <xdr:colOff>907439</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>183530</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="277" name="1234567"/>
+        <xdr:cNvPr id="284" name="1234567"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16563763" y="7171736"/>
+          <a:off x="16563764" y="7171736"/>
           <a:ext cx="1768076" cy="579090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11468,7 +11468,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>165967</xdr:colOff>
+      <xdr:colOff>165968</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>74512</xdr:rowOff>
     </xdr:from>
@@ -11480,13 +11480,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="278" name="性別"/>
+        <xdr:cNvPr id="285" name="性別"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13856567" y="6501982"/>
-          <a:ext cx="1880689" cy="579089"/>
+          <a:off x="13856568" y="6501982"/>
+          <a:ext cx="1880688" cy="579089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11558,24 +11558,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>383963</xdr:colOff>
+      <xdr:colOff>383964</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>74512</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>903936</xdr:colOff>
+      <xdr:colOff>903937</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>197670</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="279" name="◉男性  ○女性"/>
+        <xdr:cNvPr id="286" name="◉男性  ○女性"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16563763" y="6501982"/>
+          <a:off x="16563764" y="6501982"/>
           <a:ext cx="3009174" cy="579089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11648,7 +11648,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>165967</xdr:colOff>
+      <xdr:colOff>165968</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>46231</xdr:rowOff>
     </xdr:from>
@@ -11660,13 +11660,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="280" name="住所（都道府県）"/>
+        <xdr:cNvPr id="287" name="住所（都道府県）"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13856567" y="7841491"/>
-          <a:ext cx="1880689" cy="579089"/>
+          <a:off x="13856568" y="7841491"/>
+          <a:ext cx="1880688" cy="579089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11738,24 +11738,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>383963</xdr:colOff>
+      <xdr:colOff>383964</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>46231</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>907438</xdr:colOff>
+      <xdr:colOff>907439</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>169389</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="281" name="北海道"/>
+        <xdr:cNvPr id="288" name="北海道"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16563763" y="7841491"/>
+          <a:off x="16563764" y="7841491"/>
           <a:ext cx="1768076" cy="579089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11831,7 +11831,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>165967</xdr:colOff>
+      <xdr:colOff>165968</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>19523</xdr:rowOff>
     </xdr:from>
@@ -11843,13 +11843,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="282" name="住所（市区町村）"/>
+        <xdr:cNvPr id="289" name="住所（市区町村）"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13856567" y="8498678"/>
-          <a:ext cx="1880689" cy="579090"/>
+          <a:off x="13856568" y="8498678"/>
+          <a:ext cx="1880688" cy="579090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11921,24 +11921,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>383963</xdr:colOff>
+      <xdr:colOff>383964</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>19523</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>903936</xdr:colOff>
+      <xdr:colOff>903937</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>142682</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="283" name="旭川市"/>
+        <xdr:cNvPr id="290" name="旭川市"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16563763" y="8498678"/>
+          <a:off x="16563764" y="8498678"/>
           <a:ext cx="3009174" cy="579090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12014,7 +12014,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>165967</xdr:colOff>
+      <xdr:colOff>165968</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>42055</xdr:rowOff>
     </xdr:from>
@@ -12026,13 +12026,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="284" name="住所（番地）"/>
+        <xdr:cNvPr id="291" name="住所（番地）"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13856567" y="9205105"/>
-          <a:ext cx="1880689" cy="579090"/>
+          <a:off x="13856568" y="9205105"/>
+          <a:ext cx="1880688" cy="579090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12104,24 +12104,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>383963</xdr:colOff>
+      <xdr:colOff>383964</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>42055</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>903936</xdr:colOff>
+      <xdr:colOff>903937</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>165214</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="285" name="1-2-3"/>
+        <xdr:cNvPr id="292" name="1-2-3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16563763" y="9205105"/>
+          <a:off x="16563764" y="9205105"/>
           <a:ext cx="3009174" cy="579090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12197,7 +12197,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>165967</xdr:colOff>
+      <xdr:colOff>165968</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>70924</xdr:rowOff>
     </xdr:from>
@@ -12209,13 +12209,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="286" name="アカウント権限"/>
+        <xdr:cNvPr id="293" name="アカウント権限"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13856567" y="9917869"/>
-          <a:ext cx="1880689" cy="579090"/>
+          <a:off x="13856568" y="9917869"/>
+          <a:ext cx="1880688" cy="579090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12287,24 +12287,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>383963</xdr:colOff>
+      <xdr:colOff>383964</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>70924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>907438</xdr:colOff>
+      <xdr:colOff>907439</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>194083</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="287" name="一般"/>
+        <xdr:cNvPr id="294" name="一般"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16563763" y="9917869"/>
+          <a:off x="16563764" y="9917869"/>
           <a:ext cx="1768076" cy="579090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12380,7 +12380,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>291556</xdr:colOff>
+      <xdr:colOff>291555</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>196860</xdr:rowOff>
     </xdr:from>
@@ -12392,13 +12392,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="288" name="確認する"/>
+        <xdr:cNvPr id="295" name="確認する"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15226756" y="10727700"/>
-          <a:ext cx="1880688" cy="579089"/>
+          <a:off x="15226755" y="10727700"/>
+          <a:ext cx="1880689" cy="579089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12485,13 +12485,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="289" name="フッター"/>
+        <xdr:cNvPr id="296" name="フッター"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11195050" y="11319646"/>
-          <a:ext cx="9982201" cy="579089"/>
+          <a:ext cx="9982200" cy="579089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12578,13 +12578,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="290" name="ナビゲーションバー"/>
+        <xdr:cNvPr id="297" name="ナビゲーションバー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11201400" y="691289"/>
-          <a:ext cx="9982201" cy="470406"/>
+          <a:ext cx="9982200" cy="470406"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12657,24 +12657,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>159617</xdr:colOff>
+      <xdr:colOff>159618</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>183527</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>795704</xdr:colOff>
+      <xdr:colOff>795705</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>78721</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="291" name="パスワード変更の有無"/>
+        <xdr:cNvPr id="298" name="パスワード変更の有無"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13850217" y="5927102"/>
+          <a:off x="13850218" y="5927102"/>
           <a:ext cx="1880688" cy="579090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12747,24 +12747,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>377613</xdr:colOff>
+      <xdr:colOff>377614</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>183527</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>897586</xdr:colOff>
+      <xdr:colOff>897587</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>78721</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="292" name="○変更しない ◉変更する"/>
+        <xdr:cNvPr id="299" name="○変更しない ◉変更する"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16557413" y="5927102"/>
+          <a:off x="16557414" y="5927102"/>
           <a:ext cx="3009174" cy="579090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12837,7 +12837,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>997313</xdr:colOff>
+      <xdr:colOff>997314</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>152094</xdr:rowOff>
     </xdr:from>
@@ -12849,13 +12849,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="293" name="表示"/>
+        <xdr:cNvPr id="300" name="表示"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19666313" y="5211774"/>
-          <a:ext cx="685175" cy="579090"/>
+          <a:off x="19666314" y="5211774"/>
+          <a:ext cx="685174" cy="579090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12927,6 +12927,366 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>699868</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>16004</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1223343</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>158674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="301" name="ログアウト"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19368868" y="737999"/>
+          <a:ext cx="1768076" cy="376986"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>ログアウト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>714775</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>16004</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>158674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="302" name="ログアウト"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8182374" y="737999"/>
+          <a:ext cx="1768076" cy="376986"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>ログアウト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>752875</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>59203</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>201873</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="303" name="ログアウト"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19421874" y="13370073"/>
+          <a:ext cx="1768076" cy="376986"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>ログアウト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>680818</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>39879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1204293</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>182549</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="304" name="ログアウト"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8148418" y="13350749"/>
+          <a:ext cx="1768076" cy="376986"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>ログアウト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12947,7 +13307,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="295" name="四角形"/>
+        <xdr:cNvPr id="306" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12993,7 +13353,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="296" name="ログイン画面に戻る"/>
+        <xdr:cNvPr id="307" name="ログイン画面に戻る"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13086,7 +13446,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="297" name="ログアウトが完了しました"/>
+        <xdr:cNvPr id="308" name="ログアウトが完了しました"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -23638,6 +23998,276 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>594125</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>80216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1117600</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>222886</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="115" name="ログアウト"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8061724" y="25524031"/>
+          <a:ext cx="1768076" cy="376986"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>ログアウト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>594125</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>58568</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1117600</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>201238</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="116" name="ログアウト"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8061724" y="13141473"/>
+          <a:ext cx="1768076" cy="376986"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>ログアウト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>594125</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>36921</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1117600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>179591</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="117" name="ログアウト"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8061724" y="758916"/>
+          <a:ext cx="1768076" cy="376986"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>ログアウト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -23658,7 +24288,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="116" name="アカウント一覧画面"/>
+        <xdr:cNvPr id="119" name="アカウント一覧画面"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -23748,7 +24378,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="117" name="四角形"/>
+        <xdr:cNvPr id="120" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -23794,7 +24424,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="118" name="フッター"/>
+        <xdr:cNvPr id="121" name="フッター"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -23887,7 +24517,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="119" name="ナビゲーションバー"/>
+        <xdr:cNvPr id="122" name="ナビゲーションバー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -23978,7 +24608,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="120" name="検索"/>
+        <xdr:cNvPr id="123" name="検索"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -24071,7 +24701,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="121" name="全てのアカウント検索"/>
+        <xdr:cNvPr id="124" name="全てのアカウント検索"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -24149,6 +24779,96 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>629477</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>132848</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>492552</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>14533</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="125" name="ログアウト"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8884477" y="793248"/>
+          <a:ext cx="1768076" cy="376986"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>ログアウト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -24169,7 +24889,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="123" name="名前（姓）"/>
+        <xdr:cNvPr id="127" name="名前（姓）"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -24257,7 +24977,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="124" name="やまだ"/>
+        <xdr:cNvPr id="128" name="やまだ"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -24347,7 +25067,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="125" name="アカウント削除画面"/>
+        <xdr:cNvPr id="129" name="アカウント削除画面"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -24437,7 +25157,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="126" name="名前（名）"/>
+        <xdr:cNvPr id="130" name="名前（名）"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -24525,7 +25245,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="127" name="カナ（姓）"/>
+        <xdr:cNvPr id="131" name="カナ（姓）"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -24613,7 +25333,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="128" name="たろう"/>
+        <xdr:cNvPr id="132" name="たろう"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -24703,7 +25423,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="129" name="ヤマダ"/>
+        <xdr:cNvPr id="133" name="ヤマダ"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -24793,7 +25513,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="130" name="カナ（名）"/>
+        <xdr:cNvPr id="134" name="カナ（名）"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -24881,7 +25601,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="131" name="タロウ"/>
+        <xdr:cNvPr id="135" name="タロウ"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -24971,7 +25691,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="132" name="四角形"/>
+        <xdr:cNvPr id="136" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -25017,7 +25737,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="133" name="メールアドレス"/>
+        <xdr:cNvPr id="137" name="メールアドレス"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -25107,7 +25827,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="134" name="yamada@gamil.com"/>
+        <xdr:cNvPr id="138" name="yamada@gamil.com"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -25198,7 +25918,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="135" name="郵便番号"/>
+        <xdr:cNvPr id="139" name="郵便番号"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -25288,7 +26008,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="136" name="1234567"/>
+        <xdr:cNvPr id="140" name="1234567"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -25378,7 +26098,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="137" name="性別"/>
+        <xdr:cNvPr id="141" name="性別"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -25468,7 +26188,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="138" name="男性"/>
+        <xdr:cNvPr id="142" name="男性"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -25558,7 +26278,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="139" name="住所（都道府県）"/>
+        <xdr:cNvPr id="143" name="住所（都道府県）"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -25648,7 +26368,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="140" name="北海道"/>
+        <xdr:cNvPr id="144" name="北海道"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -25738,7 +26458,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="141" name="住所（市区町村）"/>
+        <xdr:cNvPr id="145" name="住所（市区町村）"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -25828,7 +26548,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="142" name="旭川市"/>
+        <xdr:cNvPr id="146" name="旭川市"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -25918,7 +26638,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="143" name="住所（番地）"/>
+        <xdr:cNvPr id="147" name="住所（番地）"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -26008,7 +26728,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="144" name="1-2-3"/>
+        <xdr:cNvPr id="148" name="1-2-3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -26098,7 +26818,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="145" name="アカウント権限"/>
+        <xdr:cNvPr id="149" name="アカウント権限"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -26188,7 +26908,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="146" name="一般"/>
+        <xdr:cNvPr id="150" name="一般"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -26278,7 +26998,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="147" name="確認する"/>
+        <xdr:cNvPr id="151" name="確認する"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -26371,7 +27091,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="148" name="フッター"/>
+        <xdr:cNvPr id="152" name="フッター"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -26464,7 +27184,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="149" name="ナビゲーションバー"/>
+        <xdr:cNvPr id="153" name="ナビゲーションバー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -26555,7 +27275,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="150" name="アカウント削除確認画面"/>
+        <xdr:cNvPr id="154" name="アカウント削除確認画面"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -26689,7 +27409,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="151" name="四角形"/>
+        <xdr:cNvPr id="155" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -26735,7 +27455,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="152" name="確認する"/>
+        <xdr:cNvPr id="156" name="確認する"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -26828,7 +27548,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="153" name="フッター"/>
+        <xdr:cNvPr id="157" name="フッター"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -26921,7 +27641,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="154" name="ナビゲーションバー"/>
+        <xdr:cNvPr id="158" name="ナビゲーションバー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -27012,7 +27732,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="155" name="本当に削除してよろしいですか？"/>
+        <xdr:cNvPr id="159" name="本当に削除してよろしいですか？"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -27100,7 +27820,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="156" name="アカウント削除完了画面"/>
+        <xdr:cNvPr id="160" name="アカウント削除完了画面"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -27234,7 +27954,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="157" name="四角形"/>
+        <xdr:cNvPr id="161" name="四角形"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -27280,7 +28000,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="158" name="ログアウト"/>
+        <xdr:cNvPr id="162" name="ログアウト"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -27373,7 +28093,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="159" name="フッター"/>
+        <xdr:cNvPr id="163" name="フッター"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -27466,7 +28186,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="160" name="ナビゲーションバー"/>
+        <xdr:cNvPr id="164" name="ナビゲーションバー"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -27557,7 +28277,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="161" name="削除完了しました"/>
+        <xdr:cNvPr id="165" name="削除完了しました"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -27645,7 +28365,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="162" name="前に戻る"/>
+        <xdr:cNvPr id="166" name="前に戻る"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -27738,7 +28458,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="163" name="TOPページへ戻る"/>
+        <xdr:cNvPr id="167" name="TOPページへ戻る"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -27810,6 +28530,276 @@
               <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
             </a:rPr>
             <a:t>TOPページへ戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>714775</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>116293</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>30998</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="168" name="ログアウト"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8182374" y="25332143"/>
+          <a:ext cx="1768076" cy="376986"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>ログアウト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>714775</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>39879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>182549</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="169" name="ログアウト"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8182374" y="13350749"/>
+          <a:ext cx="1768076" cy="376986"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>ログアウト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>714775</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>22268</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>164938</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="170" name="ログアウト"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8182374" y="744263"/>
+          <a:ext cx="1768076" cy="376986"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>ログアウト</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -33810,7 +34800,7 @@
       <c r="P113" s="29"/>
       <c r="Q113" s="29"/>
     </row>
-    <row r="114" ht="17.95" customHeight="1">
+    <row r="114" ht="19.95" customHeight="1">
       <c r="A114" s="29"/>
       <c r="B114" s="29"/>
       <c r="C114" s="29"/>
@@ -33819,7 +34809,7 @@
       <c r="F114" s="29"/>
       <c r="G114" s="29"/>
       <c r="H114" s="29"/>
-      <c r="I114" s="29"/>
+      <c r="I114" s="46"/>
       <c r="J114" s="29"/>
       <c r="K114" s="29"/>
       <c r="L114" s="29"/>
@@ -34704,8 +35694,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="8" width="19.6016" style="46" customWidth="1"/>
-    <col min="9" max="16384" width="19.6016" style="46" customWidth="1"/>
+    <col min="1" max="8" width="19.6016" style="47" customWidth="1"/>
+    <col min="9" max="16384" width="19.6016" style="47" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.95" customHeight="1">
